--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>客服工作台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,14 @@
       </rPr>
       <t>完成，待调试接口</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有任务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +323,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -656,7 +670,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -664,8 +678,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="67.5" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -694,8 +708,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,13 +719,19 @@
       <c r="F4" s="1">
         <v>1.5</v>
       </c>
+      <c r="G4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43294</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -720,8 +740,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
@@ -734,13 +754,19 @@
       <c r="F6" s="8">
         <v>2</v>
       </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>43293</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
@@ -764,8 +790,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
@@ -789,8 +815,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
@@ -814,8 +840,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -832,8 +858,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
@@ -848,8 +874,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
@@ -864,7 +890,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
@@ -873,7 +899,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
@@ -882,7 +908,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
@@ -916,51 +942,53 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:9" s="12" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>27</v>
+      <c r="C17" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="5">
         <v>43297</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="1">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
+      <c r="H17" s="14"/>
       <c r="I17" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5">
+        <v>43297</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>43298</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="5">
-        <v>43300</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -970,29 +998,29 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43300</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <v>43304</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="5">
-        <v>43305</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1002,52 +1030,68 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43305</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <v>43297</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>0.5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="5">
-        <v>43306</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.5</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43306</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1">
+      <c r="I25" s="3" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>客服工作台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,6 +329,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -625,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -670,7 +673,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -678,8 +681,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="67.5" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -708,8 +711,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -730,8 +733,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -740,8 +743,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
@@ -765,8 +768,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
@@ -790,8 +793,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
@@ -815,8 +818,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
@@ -840,8 +843,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -858,8 +861,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
@@ -874,8 +877,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
@@ -890,7 +893,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
@@ -899,7 +902,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
@@ -908,7 +911,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
@@ -943,10 +946,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -965,8 +968,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
@@ -982,8 +985,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
@@ -998,8 +1001,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="11" t="s">
         <v>29</v>
       </c>
@@ -1014,8 +1017,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="11" t="s">
         <v>30</v>
       </c>
@@ -1030,8 +1033,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1046,8 +1049,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -1059,29 +1062,30 @@
       <c r="F23" s="1">
         <v>0.5</v>
       </c>
+      <c r="G23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="10">
+        <v>43297</v>
+      </c>
       <c r="I23" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="5">
-        <v>43306</v>
+        <v>43297</v>
       </c>
       <c r="F24" s="1">
         <v>1.5</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1">
-      <c r="I25" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -239,7 +239,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +270,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -285,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +338,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -958,7 +970,9 @@
       <c r="D17" s="5">
         <v>43297</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7">
+        <v>43298</v>
+      </c>
       <c r="F17" s="12">
         <v>1</v>
       </c>
@@ -967,20 +981,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1">
+    <row r="18" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="17">
         <v>43297</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="1">
+      <c r="E18" s="17">
+        <v>43297</v>
+      </c>
+      <c r="F18" s="16">
         <v>1</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="G18" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1083,6 +1102,12 @@
       </c>
       <c r="F24" s="1">
         <v>1.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>43298</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>24</v>

--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>客服工作台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>高峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回访管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +243,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +274,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -340,10 +338,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -685,7 +683,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -693,8 +691,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="67.5" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -723,8 +721,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -745,8 +743,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -755,8 +753,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
@@ -780,8 +778,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
@@ -805,8 +803,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
@@ -830,8 +828,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
@@ -855,8 +853,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -873,8 +871,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
@@ -889,8 +887,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
@@ -905,7 +903,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
@@ -914,7 +912,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
@@ -923,7 +921,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
@@ -958,10 +956,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -976,21 +974,26 @@
       <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>43298</v>
+      </c>
       <c r="I17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="14">
         <v>43297</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>43297</v>
       </c>
       <c r="F18" s="16">
@@ -999,45 +1002,66 @@
       <c r="G18" s="16">
         <v>1.5</v>
       </c>
+      <c r="H18" s="10">
+        <v>43298</v>
+      </c>
       <c r="I18" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="5">
         <v>43298</v>
       </c>
+      <c r="E19" s="7">
+        <v>43299</v>
+      </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>43299</v>
+      </c>
       <c r="I19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="5">
         <v>43300</v>
       </c>
+      <c r="E20" s="7">
+        <v>43301</v>
+      </c>
       <c r="F20" s="1">
         <v>2</v>
       </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="10">
+        <v>43301</v>
+      </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="11" t="s">
         <v>30</v>
       </c>
@@ -1045,31 +1069,40 @@
         <v>43304</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="5">
         <v>43305</v>
       </c>
+      <c r="E22" s="7">
+        <v>43301</v>
+      </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <v>43301</v>
+      </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -1078,6 +1111,9 @@
       <c r="D23" s="5">
         <v>43297</v>
       </c>
+      <c r="E23" s="7">
+        <v>43297</v>
+      </c>
       <c r="F23" s="1">
         <v>0.5</v>
       </c>
@@ -1092,14 +1128,17 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="5">
         <v>43297</v>
       </c>
+      <c r="E24" s="7">
+        <v>43297</v>
+      </c>
       <c r="F24" s="1">
         <v>1.5</v>
       </c>
@@ -1111,6 +1150,11 @@
       </c>
       <c r="I24" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1">
+      <c r="B25" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
